--- a/fichierMarsa.xlsx
+++ b/fichierMarsa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balam\Desktop\Tout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2A8FD2-E709-46BF-B295-967B5CF31F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD0640-FFAD-4938-BF46-39E70E434AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,22 +45,22 @@
     <t>i9</t>
   </si>
   <si>
-    <t>GT123456789999087</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
     <t>I8</t>
   </si>
   <si>
-    <t>GF567890543212344</t>
-  </si>
-  <si>
-    <t>HA098765432111234</t>
+    <t>FG123456789000098</t>
+  </si>
+  <si>
+    <t>GF567890543212312</t>
+  </si>
+  <si>
+    <t>GT123456789999013</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Amina</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,36 +412,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/fichierMarsa.xlsx
+++ b/fichierMarsa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balam\Desktop\Tout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD0640-FFAD-4938-BF46-39E70E434AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE31941-7C40-4992-92B7-679B61B91428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="765" windowWidth="18000" windowHeight="6330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>I8</t>
   </si>
   <si>
-    <t>FG123456789000098</t>
-  </si>
-  <si>
     <t>GF567890543212312</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Amina</t>
+  </si>
+  <si>
+    <t>FG123456789000011</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,36 +412,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
